--- a/Data/EC/NIT-8020170939.xlsx
+++ b/Data/EC/NIT-8020170939.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F87FED61-B393-40C5-BBD1-D862C611FFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4FAF562-EA69-4761-A7C3-7901E6E22FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62A36414-5350-4CC6-AD55-074B20B9B2D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{389CA751-ABD7-4D02-813E-EDAAABCFEF95}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="66">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,43 +65,106 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73577050</t>
+  </si>
+  <si>
+    <t>CESAR AUGUSTO CARMONA BELTRAN</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>9294251</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO IBAÑEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>73134138</t>
+  </si>
+  <si>
+    <t>HENRY DE JESUS CASTELLON MORALES</t>
+  </si>
+  <si>
+    <t>1047419341</t>
+  </si>
+  <si>
+    <t>OSNAIDER BENAVIDES CALAO</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1143325087</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO ACOSTA VIZCAINO</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
     <t>1047445471</t>
   </si>
   <si>
     <t>JOHANA DEL CARMEN CABARCAS RIVERA</t>
   </si>
   <si>
+    <t>1610</t>
+  </si>
+  <si>
     <t>1609</t>
   </si>
   <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1047419341</t>
-  </si>
-  <si>
-    <t>OSNAIDER BENAVIDES CALAO</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
     <t>79362728</t>
   </si>
   <si>
     <t>ARNOLD BATISTA MAYORAL</t>
   </si>
   <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1143325087</t>
-  </si>
-  <si>
-    <t>CARLOS EDUARDO ACOSTA VIZCAINO</t>
+    <t>93379609</t>
+  </si>
+  <si>
+    <t>JOSE ROSENDO RUIZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1047455260</t>
+  </si>
+  <si>
+    <t>MISTON SIMARRA CANATE</t>
   </si>
   <si>
     <t>1143388352</t>
@@ -110,76 +173,34 @@
     <t>JOSE DAVID HERNANDEZ TELLEZ</t>
   </si>
   <si>
-    <t>73577050</t>
-  </si>
-  <si>
-    <t>CESAR AUGUSTO CARMONA BELTRAN</t>
+    <t>1043294409</t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN SOLANA VENENCIA</t>
+  </si>
+  <si>
+    <t>1043991066</t>
+  </si>
+  <si>
+    <t>JAVIER CAUSADO CERVANTES</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1002204208</t>
+  </si>
+  <si>
+    <t>JAIDER DAVID GOMEZ CASTRO</t>
   </si>
   <si>
     <t>1001978884</t>
   </si>
   <si>
     <t>GLEYSER PAUTT QUINTANA</t>
-  </si>
-  <si>
-    <t>73134138</t>
-  </si>
-  <si>
-    <t>HENRY DE JESUS CASTELLON MORALES</t>
-  </si>
-  <si>
-    <t>1047455260</t>
-  </si>
-  <si>
-    <t>MISTON SIMARRA CANATE</t>
-  </si>
-  <si>
-    <t>1043294409</t>
-  </si>
-  <si>
-    <t>JUAN ESTEBAN SOLANA VENENCIA</t>
-  </si>
-  <si>
-    <t>1002204208</t>
-  </si>
-  <si>
-    <t>JAIDER DAVID GOMEZ CASTRO</t>
-  </si>
-  <si>
-    <t>9294251</t>
-  </si>
-  <si>
-    <t>CARLOS JULIO IBAÑEZ SANCHEZ</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -593,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EED26D-2194-CAFF-317E-45A312225F16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09890F7-2A32-1C3C-14D4-58F2798AA178}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,8 +965,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18737298-9FC4-4786-BA86-C699AF00CD92}">
-  <dimension ref="B2:J72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD711200-F118-417E-8209-0EBAD17FA4C9}">
+  <dimension ref="B2:J88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -969,7 +990,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1014,7 +1035,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1046,12 +1067,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2975599</v>
+        <v>4219599</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1062,17 +1083,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1099,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1122,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>48000</v>
+        <v>64000</v>
       </c>
       <c r="G16" s="18">
-        <v>1200000</v>
+        <v>1600000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1145,10 +1166,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>48000</v>
+        <v>53333</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>1600000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1165,13 +1186,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>13200</v>
+        <v>56000</v>
       </c>
       <c r="G18" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1188,13 +1209,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
-        <v>36000</v>
+        <v>39200</v>
       </c>
       <c r="G19" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1205,16 +1226,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>44800</v>
+        <v>64000</v>
       </c>
       <c r="G20" s="18">
         <v>1600000</v>
@@ -1228,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
         <v>44800</v>
@@ -1251,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>36400</v>
+        <v>36000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>900000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1274,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>53333</v>
+        <v>13200</v>
       </c>
       <c r="G23" s="18">
-        <v>1600000</v>
+        <v>900000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1297,19 +1318,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>36400</v>
+        <v>64000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1320,16 +1341,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>44800</v>
+        <v>64000</v>
       </c>
       <c r="G25" s="18">
         <v>1600000</v>
@@ -1343,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>43333</v>
+        <v>64000</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1366,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>80000</v>
+        <v>64000</v>
       </c>
       <c r="G27" s="18">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1389,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>43333</v>
+        <v>64000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1412,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>39200</v>
+        <v>64000</v>
       </c>
       <c r="G29" s="18">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1435,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="G30" s="18">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1458,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>64000</v>
@@ -1481,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>64000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1504,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
         <v>64000</v>
@@ -1527,16 +1548,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F34" s="18">
-        <v>64000</v>
+        <v>44800</v>
       </c>
       <c r="G34" s="18">
         <v>1600000</v>
@@ -1550,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>48000</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1573,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
-        <v>52000</v>
+        <v>48000</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1596,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>80000</v>
+        <v>64000</v>
       </c>
       <c r="G37" s="18">
-        <v>2000000</v>
+        <v>1231529</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1619,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>44800</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1231529</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1642,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G39" s="18">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1665,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F40" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>3000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1688,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G41" s="18">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1711,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G42" s="18">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1734,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G43" s="18">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1757,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>3000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1780,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1803,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1826,19 +1847,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1849,19 +1870,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="18">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1872,19 +1893,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G49" s="18">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1895,16 +1916,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F50" s="18">
-        <v>52000</v>
+        <v>43333</v>
       </c>
       <c r="G50" s="18">
         <v>1300000</v>
@@ -1918,19 +1939,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F51" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G51" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1941,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F52" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G52" s="18">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1964,13 +1985,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -1987,19 +2008,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F54" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G54" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2010,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F55" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G55" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2033,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2056,19 +2077,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G57" s="18">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2079,19 +2100,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G58" s="18">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2102,19 +2123,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F59" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G59" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2125,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2148,19 +2169,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F61" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G61" s="18">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2171,19 +2192,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F62" s="18">
-        <v>80000</v>
+        <v>36400</v>
       </c>
       <c r="G62" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2194,19 +2215,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G63" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2217,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F64" s="18">
         <v>80000</v>
@@ -2240,75 +2261,443 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F65" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G65" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="22" t="s">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G66" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G67" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G68" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G69" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G70" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G71" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G72" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G73" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G74" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="24">
-        <v>64000</v>
-      </c>
-      <c r="G66" s="24">
-        <v>1600000</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="H71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="H72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="D75" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="18">
+        <v>43333</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="24">
+        <v>36400</v>
+      </c>
+      <c r="G82" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="26"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="H87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="H88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H87:J87"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
